--- a/biology/Zoologie/Drongo_à_ventre_blanc/Drongo_à_ventre_blanc.xlsx
+++ b/biology/Zoologie/Drongo_à_ventre_blanc/Drongo_à_ventre_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Drongo_%C3%A0_ventre_blanc</t>
+          <t>Drongo_à_ventre_blanc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicrurus caerulescens
 Le Drongo  à ventre blanc (Dicrurus caerulescens) est une espèce de passereaux de la famille des Dicruridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Drongo_%C3%A0_ventre_blanc</t>
+          <t>Drongo_à_ventre_blanc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Drongo à ventre blanc adulte est gris foncé sur le dos avec une queue longue et profondément fourchue. La sous-espèce indienne D. c. caerulescens a le dessous gris pâle de la tête à la poitrine et blanc de la poitrine à la base de la queue. La sous-espèce sri-lankaise race, D. c. leucopygialis, a le blanc limité à la région anale et la base de la queue. Le juvénile est terne et a une poitrine gris brunâtre.
 Il a de courtes pattes et se tient perché en position verticale, comme la pie-grièche.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Drongo_%C3%A0_ventre_blanc</t>
+          <t>Drongo_à_ventre_blanc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est insectivore. Il existe toutefois de rares rapports le signalant comme prédateur de petits oiseaux.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Drongo_%C3%A0_ventre_blanc</t>
+          <t>Drongo_à_ventre_blanc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit en Inde et au Sri Lanka.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Drongo_%C3%A0_ventre_blanc</t>
+          <t>Drongo_à_ventre_blanc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple les forêts.
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Drongo_%C3%A0_ventre_blanc</t>
+          <t>Drongo_à_ventre_blanc</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Sous espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Selon Peterson, cet oiseau est représenté par 3 sous-espèces :
 Dicrurus caerulescens caerulescens (Linnaeus) 1758 ;
